--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
   <si>
     <t xml:space="preserve">pval</t>
   </si>
@@ -20,37 +23,19 @@
     <t xml:space="preserve">fdr</t>
   </si>
   <si>
-    <t xml:space="preserve">set.annotated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category.annotated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total.annotated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category</t>
+    <t xml:space="preserve">gset.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genes.overlap</t>
   </si>
   <si>
     <t xml:space="preserve">hits</t>
   </si>
   <si>
-    <t xml:space="preserve">REACTOME_PYRUVATE_METABOLISM_AND_CITRIC_ACID_TCA_CYCLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS,DLST,FH,IDH1,IDH2,IDH3A,IDH3B,LOC283398,OGDH,PDHA1,PDHB,SDHA,SDHB,SDHC,SDHD,SUCLA2,SUCLG1,SUCLG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACTOME_CITRIC_ACID_CYCLE_TCA_CYCLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS,DLST,FH,IDH2,IDH3A,IDH3B,LOC283398,OGDH,SDHA,SDHB,SDHC,SDHD,SUCLA2,SUCLG1,SUCLG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REACTOME_TCA_CYCLE_AND_RESPIRATORY_ELECTRON_TRANSPORT</t>
+    <t xml:space="preserve">Citric acid cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS,DLST,FH,IDH2,IDH3A,IDH3B,OGDH,SDHA,SDHB,SDHC,SDHD,SUCLA2,SUCLG1,SUCLG2</t>
   </si>
 </sst>
 </file>
@@ -401,89 +386,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.00000000000000000000000000037</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00000000000000000000000025</v>
+        <v>0.00000000000000000000000013</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>0.0000000000000000000002</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2522</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.000000000000000000000000012</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0000000000000000000000042</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>26</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2522</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.00000000000000000099</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.00000000000000022</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>141</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2522</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -32,10 +32,22 @@
     <t xml:space="preserve">hits</t>
   </si>
   <si>
-    <t xml:space="preserve">Citric acid cycle (TCA cycle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS,DLST,FH,IDH2,IDH3A,IDH3B,OGDH,SDHA,SDHB,SDHC,SDHD,SUCLA2,SUCLG1,SUCLG2</t>
+    <t xml:space="preserve">Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDH1,PDHA2,PDHA1,IDH2,SDHD,SDHB,SDHC,CS,SDHA,PC,SUCLA2,SUCLG2,SUCLG1,OGDH,FH,DLST,PDHB,OGDHL,PCK2,PCK1,IDH3A,IDH3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDHA2,PDHA1,PC,FH,PDHB,PCK2,PCK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDHA2,PDHA1,PDHB,PCK2,PCK1</t>
   </si>
 </sst>
 </file>
@@ -392,19 +404,59 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00000000000000000000000013</v>
+        <v>0.0000000000000000000000000000000000000000000029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0000000000000000000002</v>
+        <v>0.00000000000000000000000000000000000000000088</v>
       </c>
       <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
         <v>22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.000000034</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0000053</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name=" " sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="version" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -23,31 +24,622 @@
     <t xml:space="preserve">fdr</t>
   </si>
   <si>
-    <t xml:space="preserve">gset.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genes.overlap</t>
+    <t xml:space="preserve">signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geneset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">background</t>
   </si>
   <si>
     <t xml:space="preserve">hits</t>
   </si>
   <si>
-    <t xml:space="preserve">Citrate cycle (TCA cycle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDH1,PDHA2,PDHA1,IDH2,SDHD,SDHB,SDHC,CS,SDHA,PC,SUCLA2,SUCLG2,SUCLG1,OGDH,FH,DLST,PDHB,OGDHL,PCK2,PCK1,IDH3A,IDH3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyruvate metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDHA2,PDHA1,PC,FH,PDHB,PCK2,PCK1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycolysis / Gluconeogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDHA2,PDHA1,PDHB,PCK2,PCK1</t>
+    <t xml:space="preserve">KEGG_CITRATE_CYCLE_TCA_CYCLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS,DLST,FH,IDH1,IDH2,IDH3A,IDH3B,OGDH,OGDHL,PC,PCK1,PCK2,PDHA1,PDHA2,PDHB,SDHA,SDHB,SDHC,SDHD,SUCLA2,SUCLG1,SUCLG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PYRUVATE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC,PCK1,PCK2,PDHA1,PDHA2,PDHB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_VALINE_LEUCINE_AND_ISOLEUCINE_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDHA1,PDHA2,PDHB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCOLYSIS_GLUCONEOGENESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCK1,PCK2,PDHA1,PDHA2,PDHB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PROPANOATE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUCLA2,SUCLG1,SUCLG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_BUTANOATE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_LYSINE_DEGRADATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLST,OGDH,OGDHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PROXIMAL_TUBULE_BICARBONATE_RECLAMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCK1,PCK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PARKINSONS_DISEASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDHA,SDHB,SDHC,SDHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_OXIDATIVE_PHOSPHORYLATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TRYPTOPHAN_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OGDH,OGDHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ALZHEIMERS_DISEASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLUTATHIONE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDH1,IDH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_HUNTINGTONS_DISEASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ADIPOCYTOKINE_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYOXYLATE_AND_DICARBOXYLATE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PPAR_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PEROXISOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_INSULIN_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_RENAL_CELL_CARCINOMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PATHWAYS_IN_CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ABC_TRANSPORTERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ACUTE_MYELOID_LEUKEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ADHERENS_JUNCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ALANINE_ASPARTATE_AND_GLUTAMATE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ALDOSTERONE_REGULATED_SODIUM_REABSORPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ALLOGRAFT_REJECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ALPHA_LINOLENIC_ACID_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_AMINO_SUGAR_AND_NUCLEOTIDE_SUGAR_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_AMINOACYL_TRNA_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_AMYOTROPHIC_LATERAL_SCLEROSIS_ALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ANTIGEN_PROCESSING_AND_PRESENTATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_APOPTOSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ARACHIDONIC_ACID_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ARGININE_AND_PROLINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ARRHYTHMOGENIC_RIGHT_VENTRICULAR_CARDIOMYOPATHY_ARVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ASCORBATE_AND_ALDARATE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ASTHMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_AUTOIMMUNE_THYROID_DISEASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_AXON_GUIDANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_B_CELL_RECEPTOR_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_BASAL_CELL_CARCINOMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_BASAL_TRANSCRIPTION_FACTORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_BASE_EXCISION_REPAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_BETA_ALANINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_BIOSYNTHESIS_OF_UNSATURATED_FATTY_ACIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_BLADDER_CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CALCIUM_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CARDIAC_MUSCLE_CONTRACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CELL_ADHESION_MOLECULES_CAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CELL_CYCLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CHEMOKINE_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CHRONIC_MYELOID_LEUKEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CIRCADIAN_RHYTHM_MAMMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_COLORECTAL_CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_COMPLEMENT_AND_COAGULATION_CASCADES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CYSTEINE_AND_METHIONINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CYTOKINE_CYTOKINE_RECEPTOR_INTERACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_CYTOSOLIC_DNA_SENSING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_DILATED_CARDIOMYOPATHY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_DNA_REPLICATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_DORSO_VENTRAL_AXIS_FORMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_DRUG_METABOLISM_CYTOCHROME_P450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_DRUG_METABOLISM_OTHER_ENZYMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ECM_RECEPTOR_INTERACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ENDOCYTOSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ENDOMETRIAL_CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_EPITHELIAL_CELL_SIGNALING_IN_HELICOBACTER_PYLORI_INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ERBB_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ETHER_LIPID_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_FATTY_ACID_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_FC_EPSILON_RI_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_FC_GAMMA_R_MEDIATED_PHAGOCYTOSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_FOCAL_ADHESION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_FOLATE_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_FRUCTOSE_AND_MANNOSE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GALACTOSE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GAP_JUNCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLIOMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCEROLIPID_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCEROPHOSPHOLIPID_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCINE_SERINE_AND_THREONINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCOSAMINOGLYCAN_BIOSYNTHESIS_CHONDROITIN_SULFATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCOSAMINOGLYCAN_BIOSYNTHESIS_HEPARAN_SULFATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCOSAMINOGLYCAN_BIOSYNTHESIS_KERATAN_SULFATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCOSAMINOGLYCAN_DEGRADATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCOSPHINGOLIPID_BIOSYNTHESIS_GANGLIO_SERIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCOSPHINGOLIPID_BIOSYNTHESIS_GLOBO_SERIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCOSPHINGOLIPID_BIOSYNTHESIS_LACTO_AND_NEOLACTO_SERIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GLYCOSYLPHOSPHATIDYLINOSITOL_GPI_ANCHOR_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GNRH_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_GRAFT_VERSUS_HOST_DISEASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_HEDGEHOG_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_HEMATOPOIETIC_CELL_LINEAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_HISTIDINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_HOMOLOGOUS_RECOMBINATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_HYPERTROPHIC_CARDIOMYOPATHY_HCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_INOSITOL_PHOSPHATE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_INTESTINAL_IMMUNE_NETWORK_FOR_IGA_PRODUCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_JAK_STAT_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_LEISHMANIA_INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_LEUKOCYTE_TRANSENDOTHELIAL_MIGRATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_LIMONENE_AND_PINENE_DEGRADATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_LINOLEIC_ACID_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_LONG_TERM_DEPRESSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_LONG_TERM_POTENTIATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_LYSOSOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_MAPK_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_MATURITY_ONSET_DIABETES_OF_THE_YOUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_MELANOGENESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_MELANOMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_METABOLISM_OF_XENOBIOTICS_BY_CYTOCHROME_P450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_MISMATCH_REPAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_MTOR_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_N_GLYCAN_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NATURAL_KILLER_CELL_MEDIATED_CYTOTOXICITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NEUROACTIVE_LIGAND_RECEPTOR_INTERACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NEUROTROPHIN_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NICOTINATE_AND_NICOTINAMIDE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NITROGEN_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NOD_LIKE_RECEPTOR_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NON_HOMOLOGOUS_END_JOINING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NON_SMALL_CELL_LUNG_CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NOTCH_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_NUCLEOTIDE_EXCISION_REPAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_O_GLYCAN_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_OLFACTORY_TRANSDUCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_ONE_CARBON_POOL_BY_FOLATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_OOCYTE_MEIOSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_OTHER_GLYCAN_DEGRADATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_P53_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PANCREATIC_CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PANTOTHENATE_AND_COA_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PATHOGENIC_ESCHERICHIA_COLI_INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PENTOSE_AND_GLUCURONATE_INTERCONVERSIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PENTOSE_PHOSPHATE_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PHENYLALANINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PHOSPHATIDYLINOSITOL_SIGNALING_SYSTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PORPHYRIN_AND_CHLOROPHYLL_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PRIMARY_BILE_ACID_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PRIMARY_IMMUNODEFICIENCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PRION_DISEASES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PROGESTERONE_MEDIATED_OOCYTE_MATURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PROSTATE_CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PROTEASOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PROTEIN_EXPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PURINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_PYRIMIDINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_REGULATION_OF_ACTIN_CYTOSKELETON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_REGULATION_OF_AUTOPHAGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_RENIN_ANGIOTENSIN_SYSTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_RETINOL_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_RIBOFLAVIN_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_RIBOSOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_RIG_I_LIKE_RECEPTOR_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_RNA_DEGRADATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_RNA_POLYMERASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_SELENOAMINO_ACID_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_SMALL_CELL_LUNG_CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_SNARE_INTERACTIONS_IN_VESICULAR_TRANSPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_SPHINGOLIPID_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_SPLICEOSOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_STARCH_AND_SUCROSE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_STEROID_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_STEROID_HORMONE_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_SULFUR_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_SYSTEMIC_LUPUS_ERYTHEMATOSUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_T_CELL_RECEPTOR_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TASTE_TRANSDUCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TAURINE_AND_HYPOTAURINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TERPENOID_BACKBONE_BIOSYNTHESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TGF_BETA_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_THYROID_CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TIGHT_JUNCTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TOLL_LIKE_RECEPTOR_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TYPE_I_DIABETES_MELLITUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TYPE_II_DIABETES_MELLITUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_TYROSINE_METABOLISM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_UBIQUITIN_MEDIATED_PROTEOLYSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_VALINE_LEUCINE_AND_ISOLEUCINE_DEGRADATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_VASCULAR_SMOOTH_MUSCLE_CONTRACTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_VASOPRESSIN_REGULATED_WATER_REABSORPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_VEGF_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_VIBRIO_CHOLERAE_INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_VIRAL_MYOCARDITIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEGG_WNT_SIGNALING_PATHWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generated with hypeR v1.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the following genesets: C2.CP:KEGG v7.0.1</t>
   </si>
 </sst>
 </file>
@@ -398,65 +990,4871 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0000000000000000000000000000000000000000000029</v>
+        <v>0.0000000000000000000000000000000000000000000099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00000000000000000000000000000000000000000088</v>
+        <v>0.0000000000000000000000000000000000000000018</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" t="n">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="G2" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000000034</v>
+        <v>0.0000012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0000053</v>
+        <v>0.00011</v>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.00023</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>62</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24</v>
+      </c>
+      <c r="E8" t="n">
+        <v>44</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" t="n">
+        <v>128</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>131</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24</v>
+      </c>
+      <c r="E13" t="n">
+        <v>165</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24</v>
+      </c>
+      <c r="E15" t="n">
+        <v>180</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24</v>
+      </c>
+      <c r="E16" t="n">
+        <v>67</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>24</v>
+      </c>
+      <c r="E18" t="n">
+        <v>69</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>24</v>
+      </c>
+      <c r="E19" t="n">
+        <v>78</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>24</v>
+      </c>
+      <c r="E20" t="n">
+        <v>137</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>24</v>
+      </c>
+      <c r="E21" t="n">
+        <v>70</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24</v>
+      </c>
+      <c r="E22" t="n">
+        <v>325</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>24</v>
+      </c>
+      <c r="E23" t="n">
+        <v>44</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" t="n">
+        <v>57</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="n">
+        <v>73</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>32</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24</v>
+      </c>
+      <c r="E27" t="n">
+        <v>42</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24</v>
+      </c>
+      <c r="E28" t="n">
+        <v>37</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>24</v>
+      </c>
+      <c r="E29" t="n">
+        <v>19</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24</v>
+      </c>
+      <c r="E30" t="n">
+        <v>44</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>24</v>
+      </c>
+      <c r="E31" t="n">
+        <v>41</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>24</v>
+      </c>
+      <c r="E32" t="n">
+        <v>53</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>24</v>
+      </c>
+      <c r="E33" t="n">
+        <v>88</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24</v>
+      </c>
+      <c r="E34" t="n">
+        <v>87</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24</v>
+      </c>
+      <c r="E35" t="n">
+        <v>58</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24</v>
+      </c>
+      <c r="E36" t="n">
+        <v>54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24</v>
+      </c>
+      <c r="E37" t="n">
+        <v>74</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>24</v>
+      </c>
+      <c r="E39" t="n">
+        <v>30</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>24</v>
+      </c>
+      <c r="E40" t="n">
+        <v>52</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>24</v>
+      </c>
+      <c r="E41" t="n">
+        <v>129</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>24</v>
+      </c>
+      <c r="E42" t="n">
+        <v>75</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>24</v>
+      </c>
+      <c r="E43" t="n">
+        <v>55</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>24</v>
+      </c>
+      <c r="E44" t="n">
+        <v>35</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>24</v>
+      </c>
+      <c r="E45" t="n">
+        <v>35</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>24</v>
+      </c>
+      <c r="E46" t="n">
+        <v>22</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>24</v>
+      </c>
+      <c r="E47" t="n">
+        <v>22</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>24</v>
+      </c>
+      <c r="E48" t="n">
+        <v>42</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>24</v>
+      </c>
+      <c r="E49" t="n">
+        <v>177</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>24</v>
+      </c>
+      <c r="E50" t="n">
+        <v>78</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>24</v>
+      </c>
+      <c r="E51" t="n">
+        <v>133</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>24</v>
+      </c>
+      <c r="E52" t="n">
+        <v>124</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>24</v>
+      </c>
+      <c r="E53" t="n">
+        <v>189</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>24</v>
+      </c>
+      <c r="E54" t="n">
+        <v>73</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>24</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>24</v>
+      </c>
+      <c r="E56" t="n">
+        <v>62</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>24</v>
+      </c>
+      <c r="E57" t="n">
+        <v>69</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>24</v>
+      </c>
+      <c r="E58" t="n">
+        <v>34</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>24</v>
+      </c>
+      <c r="E59" t="n">
+        <v>265</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>24</v>
+      </c>
+      <c r="E60" t="n">
+        <v>55</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>24</v>
+      </c>
+      <c r="E61" t="n">
+        <v>90</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>24</v>
+      </c>
+      <c r="E62" t="n">
+        <v>36</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>24</v>
+      </c>
+      <c r="E63" t="n">
+        <v>24</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>24</v>
+      </c>
+      <c r="E64" t="n">
+        <v>72</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>24</v>
+      </c>
+      <c r="E65" t="n">
+        <v>51</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>24</v>
+      </c>
+      <c r="E66" t="n">
+        <v>84</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>24</v>
+      </c>
+      <c r="E67" t="n">
+        <v>181</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>24</v>
+      </c>
+      <c r="E68" t="n">
+        <v>52</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>24</v>
+      </c>
+      <c r="E69" t="n">
+        <v>68</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>24</v>
+      </c>
+      <c r="E70" t="n">
+        <v>87</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>24</v>
+      </c>
+      <c r="E71" t="n">
+        <v>33</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>24</v>
+      </c>
+      <c r="E72" t="n">
+        <v>42</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>24</v>
+      </c>
+      <c r="E73" t="n">
+        <v>79</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H73" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>24</v>
+      </c>
+      <c r="E74" t="n">
+        <v>96</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>24</v>
+      </c>
+      <c r="E75" t="n">
+        <v>199</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>24</v>
+      </c>
+      <c r="E76" t="n">
+        <v>11</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>24</v>
+      </c>
+      <c r="E77" t="n">
+        <v>34</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>24</v>
+      </c>
+      <c r="E78" t="n">
+        <v>26</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>24</v>
+      </c>
+      <c r="E79" t="n">
+        <v>90</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>24</v>
+      </c>
+      <c r="E80" t="n">
+        <v>65</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>24</v>
+      </c>
+      <c r="E81" t="n">
+        <v>49</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>24</v>
+      </c>
+      <c r="E82" t="n">
+        <v>77</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>24</v>
+      </c>
+      <c r="E83" t="n">
+        <v>31</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>24</v>
+      </c>
+      <c r="E84" t="n">
+        <v>22</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>24</v>
+      </c>
+      <c r="E85" t="n">
+        <v>26</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>24</v>
+      </c>
+      <c r="E86" t="n">
+        <v>15</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>24</v>
+      </c>
+      <c r="E87" t="n">
+        <v>21</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>24</v>
+      </c>
+      <c r="E88" t="n">
+        <v>15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>24</v>
+      </c>
+      <c r="E89" t="n">
+        <v>14</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>24</v>
+      </c>
+      <c r="E90" t="n">
+        <v>26</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>24</v>
+      </c>
+      <c r="E91" t="n">
+        <v>25</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H91" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>24</v>
+      </c>
+      <c r="E92" t="n">
+        <v>101</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H92" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>112</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>24</v>
+      </c>
+      <c r="E93" t="n">
+        <v>41</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>24</v>
+      </c>
+      <c r="E94" t="n">
+        <v>56</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>24</v>
+      </c>
+      <c r="E95" t="n">
+        <v>87</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>24</v>
+      </c>
+      <c r="E96" t="n">
+        <v>29</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>24</v>
+      </c>
+      <c r="E97" t="n">
+        <v>28</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>24</v>
+      </c>
+      <c r="E98" t="n">
+        <v>83</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>24</v>
+      </c>
+      <c r="E99" t="n">
+        <v>54</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H99" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>24</v>
+      </c>
+      <c r="E100" t="n">
+        <v>48</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>24</v>
+      </c>
+      <c r="E101" t="n">
+        <v>155</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>24</v>
+      </c>
+      <c r="E102" t="n">
+        <v>72</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>24</v>
+      </c>
+      <c r="E103" t="n">
+        <v>116</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>24</v>
+      </c>
+      <c r="E104" t="n">
         <v>10</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.00035</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H104" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>24</v>
+      </c>
+      <c r="E105" t="n">
+        <v>29</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H105" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>24</v>
+      </c>
+      <c r="E106" t="n">
+        <v>70</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H106" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>24</v>
+      </c>
+      <c r="E107" t="n">
+        <v>70</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H107" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>24</v>
+      </c>
+      <c r="E108" t="n">
+        <v>121</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H108" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>24</v>
+      </c>
+      <c r="E109" t="n">
+        <v>267</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H109" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>24</v>
+      </c>
+      <c r="E110" t="n">
+        <v>25</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>24</v>
+      </c>
+      <c r="E111" t="n">
+        <v>101</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>24</v>
+      </c>
+      <c r="E112" t="n">
+        <v>71</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H112" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>24</v>
+      </c>
+      <c r="E113" t="n">
+        <v>70</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H113" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>24</v>
+      </c>
+      <c r="E114" t="n">
+        <v>23</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>24</v>
+      </c>
+      <c r="E115" t="n">
+        <v>52</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>24</v>
+      </c>
+      <c r="E116" t="n">
+        <v>46</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>24</v>
+      </c>
+      <c r="E117" t="n">
+        <v>137</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>24</v>
+      </c>
+      <c r="E118" t="n">
+        <v>272</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>24</v>
+      </c>
+      <c r="E119" t="n">
+        <v>126</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H119" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>24</v>
+      </c>
+      <c r="E120" t="n">
+        <v>24</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>24</v>
+      </c>
+      <c r="E121" t="n">
+        <v>23</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>24</v>
+      </c>
+      <c r="E122" t="n">
+        <v>62</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>24</v>
+      </c>
+      <c r="E123" t="n">
+        <v>13</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>24</v>
+      </c>
+      <c r="E124" t="n">
+        <v>54</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>24</v>
+      </c>
+      <c r="E125" t="n">
+        <v>47</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H125" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>24</v>
+      </c>
+      <c r="E126" t="n">
+        <v>44</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>24</v>
+      </c>
+      <c r="E127" t="n">
+        <v>30</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>24</v>
+      </c>
+      <c r="E128" t="n">
+        <v>389</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H128" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>24</v>
+      </c>
+      <c r="E129" t="n">
+        <v>17</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H129" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>24</v>
+      </c>
+      <c r="E130" t="n">
+        <v>112</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H130" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>24</v>
+      </c>
+      <c r="E131" t="n">
+        <v>16</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>24</v>
+      </c>
+      <c r="E132" t="n">
         <v>68</v>
       </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>24</v>
+      </c>
+      <c r="E133" t="n">
+        <v>70</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H133" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>153</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>24</v>
+      </c>
+      <c r="E134" t="n">
+        <v>16</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H134" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>24</v>
+      </c>
+      <c r="E135" t="n">
+        <v>56</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H135" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>24</v>
+      </c>
+      <c r="E136" t="n">
+        <v>28</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H136" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>156</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>24</v>
+      </c>
+      <c r="E137" t="n">
+        <v>27</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H137" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>24</v>
+      </c>
+      <c r="E138" t="n">
+        <v>18</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H138" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>158</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>24</v>
+      </c>
+      <c r="E139" t="n">
+        <v>76</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H139" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>24</v>
+      </c>
+      <c r="E140" t="n">
+        <v>41</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H140" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>24</v>
+      </c>
+      <c r="E141" t="n">
+        <v>16</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H141" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>24</v>
+      </c>
+      <c r="E142" t="n">
+        <v>35</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>24</v>
+      </c>
+      <c r="E143" t="n">
+        <v>35</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H143" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>24</v>
+      </c>
+      <c r="E144" t="n">
+        <v>85</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H144" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>164</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>24</v>
+      </c>
+      <c r="E145" t="n">
+        <v>89</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H145" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>165</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>24</v>
+      </c>
+      <c r="E146" t="n">
+        <v>46</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H146" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>24</v>
+      </c>
+      <c r="E147" t="n">
+        <v>24</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H147" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>24</v>
+      </c>
+      <c r="E148" t="n">
+        <v>159</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H148" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>24</v>
+      </c>
+      <c r="E149" t="n">
+        <v>98</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H149" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>24</v>
+      </c>
+      <c r="E150" t="n">
+        <v>213</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H150" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>24</v>
+      </c>
+      <c r="E151" t="n">
+        <v>35</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H151" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>24</v>
+      </c>
+      <c r="E152" t="n">
+        <v>17</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H152" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>24</v>
+      </c>
+      <c r="E153" t="n">
+        <v>64</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H153" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>24</v>
+      </c>
+      <c r="E154" t="n">
+        <v>16</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H154" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>174</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>24</v>
+      </c>
+      <c r="E155" t="n">
+        <v>88</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H155" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>24</v>
+      </c>
+      <c r="E156" t="n">
+        <v>71</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H156" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>24</v>
+      </c>
+      <c r="E157" t="n">
+        <v>59</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H157" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>177</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>24</v>
+      </c>
+      <c r="E158" t="n">
+        <v>29</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H158" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>24</v>
+      </c>
+      <c r="E159" t="n">
+        <v>26</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H159" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>24</v>
+      </c>
+      <c r="E160" t="n">
+        <v>84</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H160" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>180</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>24</v>
+      </c>
+      <c r="E161" t="n">
+        <v>38</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H161" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>24</v>
+      </c>
+      <c r="E162" t="n">
+        <v>39</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H162" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>24</v>
+      </c>
+      <c r="E163" t="n">
+        <v>127</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H163" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>24</v>
+      </c>
+      <c r="E164" t="n">
+        <v>52</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H164" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>24</v>
+      </c>
+      <c r="E165" t="n">
+        <v>17</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H165" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>185</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>24</v>
+      </c>
+      <c r="E166" t="n">
+        <v>55</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H166" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>186</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>24</v>
+      </c>
+      <c r="E167" t="n">
+        <v>13</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H167" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>24</v>
+      </c>
+      <c r="E168" t="n">
+        <v>138</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H168" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>188</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>24</v>
+      </c>
+      <c r="E169" t="n">
+        <v>108</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H169" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>189</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>24</v>
+      </c>
+      <c r="E170" t="n">
+        <v>52</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H170" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>24</v>
+      </c>
+      <c r="E171" t="n">
+        <v>10</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H171" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>191</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>24</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H172" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>192</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
+        <v>24</v>
+      </c>
+      <c r="E173" t="n">
+        <v>85</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H173" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>193</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>24</v>
+      </c>
+      <c r="E174" t="n">
+        <v>29</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H174" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>194</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>24</v>
+      </c>
+      <c r="E175" t="n">
+        <v>132</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H175" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>195</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>24</v>
+      </c>
+      <c r="E176" t="n">
+        <v>102</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H176" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>196</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>24</v>
+      </c>
+      <c r="E177" t="n">
+        <v>43</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H177" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>197</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="n">
+        <v>24</v>
+      </c>
+      <c r="E178" t="n">
+        <v>47</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H178" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>198</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="n">
+        <v>24</v>
+      </c>
+      <c r="E179" t="n">
+        <v>42</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H179" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>199</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="n">
+        <v>24</v>
+      </c>
+      <c r="E180" t="n">
+        <v>134</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H180" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
+        <v>24</v>
+      </c>
+      <c r="E181" t="n">
+        <v>44</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H181" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>201</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="n">
+        <v>24</v>
+      </c>
+      <c r="E182" t="n">
+        <v>115</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H182" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>202</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>24</v>
+      </c>
+      <c r="E183" t="n">
+        <v>44</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H183" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>203</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>24</v>
+      </c>
+      <c r="E184" t="n">
+        <v>76</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H184" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>204</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>24</v>
+      </c>
+      <c r="E185" t="n">
+        <v>54</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H185" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>205</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>24</v>
+      </c>
+      <c r="E186" t="n">
+        <v>70</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H186" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>206</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>24</v>
+      </c>
+      <c r="E187" t="n">
+        <v>150</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2522</v>
+      </c>
+      <c r="H187" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -636,7 +636,7 @@
     <t xml:space="preserve">KEGG_WNT_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t xml:space="preserve">Generated with hypeR v1.2.0</t>
+    <t xml:space="preserve">Generated with hypeR v1.3.0</t>
   </si>
   <si>
     <t xml:space="preserve">Using the following genesets: C2.CP:KEGG v7.0.1</t>

--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name=" " sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="version" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="versioning" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t xml:space="preserve">label</t>
   </si>
@@ -636,10 +636,64 @@
     <t xml:space="preserve">KEGG_WNT_SIGNALING_PATHWAY</t>
   </si>
   <si>
-    <t xml:space="preserve">Generated with hypeR v1.3.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using the following genesets: C2.CP:KEGG v7.0.1</t>
+    <t xml:space="preserve">hypeR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDH3B,DLST,PCK2,CS,PDHB,PCK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genesets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2.CP:KEGG v7.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypergeometric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
   </si>
 </sst>
 </file>
@@ -5851,10 +5905,88 @@
       <c r="A1" t="s">
         <v>207</v>
       </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -639,7 +639,7 @@
     <t xml:space="preserve">hypeR</t>
   </si>
   <si>
-    <t xml:space="preserve">v1.5.0</t>
+    <t xml:space="preserve">v1.5.1</t>
   </si>
   <si>
     <t xml:space="preserve">Signature Head</t>

--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -639,7 +639,7 @@
     <t xml:space="preserve">hypeR</t>
   </si>
   <si>
-    <t xml:space="preserve">v1.5.1</t>
+    <t xml:space="preserve">v1.5.2</t>
   </si>
   <si>
     <t xml:space="preserve">Signature Head</t>

--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -639,7 +639,7 @@
     <t xml:space="preserve">hypeR</t>
   </si>
   <si>
-    <t xml:space="preserve">v1.5.2</t>
+    <t xml:space="preserve">v1.5.3</t>
   </si>
   <si>
     <t xml:space="preserve">Signature Head</t>

--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -639,7 +639,7 @@
     <t xml:space="preserve">hypeR</t>
   </si>
   <si>
-    <t xml:space="preserve">v1.5.3</t>
+    <t xml:space="preserve">v1.7.0</t>
   </si>
   <si>
     <t xml:space="preserve">Signature Head</t>
@@ -663,7 +663,7 @@
     <t xml:space="preserve">Genesets</t>
   </si>
   <si>
-    <t xml:space="preserve">C2.CP:KEGG v7.1.1</t>
+    <t xml:space="preserve">C2.CP:KEGG v7.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">Background</t>
@@ -1023,7 +1023,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1264,16 +1264,16 @@
         <v>23</v>
       </c>
       <c r="B10" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="C10" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="D10" t="n">
         <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
@@ -1290,16 +1290,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="D11" t="n">
         <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" t="n">
         <v>4</v>
@@ -1342,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1351,7 +1351,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F13" t="n">
         <v>4</v>
@@ -1394,7 +1394,7 @@
         <v>31</v>
       </c>
       <c r="B15" t="n">
-        <v>0.087</v>
+        <v>0.09</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
@@ -2287,7 +2287,7 @@
         <v>24</v>
       </c>
       <c r="E49" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>24</v>
       </c>
       <c r="E50" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>24</v>
       </c>
       <c r="E52" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>24</v>
       </c>
       <c r="E130" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>24</v>
       </c>
       <c r="E173" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>24</v>
       </c>
       <c r="E180" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>24</v>
       </c>
       <c r="E187" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -5899,7 +5899,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/docs/reference/pathways.xlsx
+++ b/docs/reference/pathways.xlsx
@@ -639,7 +639,7 @@
     <t xml:space="preserve">hypeR</t>
   </si>
   <si>
-    <t xml:space="preserve">v1.7.0</t>
+    <t xml:space="preserve">v1.7.2</t>
   </si>
   <si>
     <t xml:space="preserve">Signature Head</t>
